--- a/biology/Médecine/1318_en_santé_et_médecine/1318_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1318_en_santé_et_médecine/1318_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1318_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1318_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1318 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1318_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1318_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Création de l'hôpital du Saint-Esprit à Vaxjo, en Suède[1].
-Guido da Vigevano, médecin et ingénieur italien, est nommé « fixicus, gabellator et camerarius[2] » de la ville de Pavie[3].
-1315-1318 : fondation de l'hôpital Sainte-Marie de York en Angleterre[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Création de l'hôpital du Saint-Esprit à Vaxjo, en Suède.
+Guido da Vigevano, médecin et ingénieur italien, est nommé « fixicus, gabellator et camerarius » de la ville de Pavie.
+1315-1318 : fondation de l'hôpital Sainte-Marie de York en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1318_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1318_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,18 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Accursio di Cambio, médecin à Avignon, au service des cardinaux Napoléon Orsini et Jean Gaétan des Oursins[3].
-Fl. Arnoul, Étienne et Gobin, barbiers à Reims[3].
-Fl. Guillaume, barbier, un des légataires de Robert de Bourbon, comte de Clermont[3].
-Fl. Hervé de Villa Orcuf, médecin, recteur de Plounéventer dans le diocèse de Léon en Bretagne[3].
-Fl. Jean de Lille, médecin attitré de la ville d'Ypres, en Flandre[5].
-Fl. Colin Donerey, barbier à Metz, ville libre du Saint-Empire[6].
-1282-1318 : fl. Brunus de Rulilliaco, médecin de Jean Ier, dauphin de Viennois, et d'Amédée V, comte de Savoie[3].
-1302-1318 : fl. Henri Veieler, barbier à Strasbourg, ville libre du Saint-Empire[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Accursio di Cambio, médecin à Avignon, au service des cardinaux Napoléon Orsini et Jean Gaétan des Oursins.
+Fl. Arnoul, Étienne et Gobin, barbiers à Reims.
+Fl. Guillaume, barbier, un des légataires de Robert de Bourbon, comte de Clermont.
+Fl. Hervé de Villa Orcuf, médecin, recteur de Plounéventer dans le diocèse de Léon en Bretagne.
+Fl. Jean de Lille, médecin attitré de la ville d'Ypres, en Flandre.
+Fl. Colin Donerey, barbier à Metz, ville libre du Saint-Empire.
+1282-1318 : fl. Brunus de Rulilliaco, médecin de Jean Ier, dauphin de Viennois, et d'Amédée V, comte de Savoie.
+1302-1318 : fl. Henri Veieler, barbier à Strasbourg, ville libre du Saint-Empire.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1318_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1318_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parution du Livro d'alveitaria (« Livre de maréchalerie »), traité d'hippiatrie où l'auteur, maître Giraldo, médecin de Denis le Cultivateur, roi de Portugal, « rassemble ses connaissances vétérinaires, tirées du De Medicina equorum de Rufus Jordanus et de la Cirurgia[7] de Théodoric[8] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parution du Livro d'alveitaria (« Livre de maréchalerie »), traité d'hippiatrie où l'auteur, maître Giraldo, médecin de Denis le Cultivateur, roi de Portugal, « rassemble ses connaissances vétérinaires, tirées du De Medicina equorum de Rufus Jordanus et de la Cirurgia de Théodoric ».</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1318_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1318_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +628,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant juin : Albert de Baldizonibus (date de naissance inconnue), médecin, chanoine d'Aix[3].
-18 juillet : Rashid al-Din (né en 1247 ou 1248[9]), médecin, historien et homme d'État persan d'origine juive, « qui passe pour avoir été le premier à transmettre la médecine chinoise au monde occidental[10] » par la publication, vers 1314, du Tenksuq nameh (« Trésor de l'Ilkhan sur les sciences de Cathay »).
-Vers 1318 : Pierre d'Abano (né vers 1250), médecin, philosophe et astrologue italien, auteur du Conciliator differentiarum philosophorum et precipue medicorum[11], qui lui vaudra le surnom de Conciliator[12].
-Avant 1318 : André de Interamne (date de naissance inconnue), médecin du cardinal Pierre Colonna à Avignon[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant juin : Albert de Baldizonibus (date de naissance inconnue), médecin, chanoine d'Aix.
+18 juillet : Rashid al-Din (né en 1247 ou 1248), médecin, historien et homme d'État persan d'origine juive, « qui passe pour avoir été le premier à transmettre la médecine chinoise au monde occidental » par la publication, vers 1314, du Tenksuq nameh (« Trésor de l'Ilkhan sur les sciences de Cathay »).
+Vers 1318 : Pierre d'Abano (né vers 1250), médecin, philosophe et astrologue italien, auteur du Conciliator differentiarum philosophorum et precipue medicorum, qui lui vaudra le surnom de Conciliator.
+Avant 1318 : André de Interamne (date de naissance inconnue), médecin du cardinal Pierre Colonna à Avignon.</t>
         </is>
       </c>
     </row>
